--- a/metadata_files/06_metadata_phenology/01_WORKING_monthly_datatypes/Amsterdam Albatross_Amsterdam and St Paul.xlsx
+++ b/metadata_files/06_metadata_phenology/01_WORKING_monthly_datatypes/Amsterdam Albatross_Amsterdam and St Paul.xlsx
@@ -3751,13 +3751,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E48A56B-F4B6-4011-9B92-023E33033DC9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3302EE61-69B2-49A2-B948-4CCD74A0E9CC}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0362DBFB-A693-4556-ACFE-99A9E0777C54}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{164AF762-37EE-4F8D-857E-69FA2AC17F87}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55C66ACA-51D6-4AF3-A210-622248AFF925}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41F503CA-1D9F-4692-A9A5-BF4A61A7E10D}"/>
 </file>